--- a/MNIST.xlsx
+++ b/MNIST.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>model_no</t>
   </si>
@@ -46,7 +46,7 @@
     <t>graphic</t>
   </si>
   <si>
-    <t>9</t>
+    <t>13</t>
   </si>
   <si>
     <t>MNIST_model_no_1.jpg</t>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>MNIST_model_no_9.jpg</t>
+  </si>
+  <si>
+    <t>MNIST_model_no_10.jpg</t>
+  </si>
+  <si>
+    <t>MNIST_model_no_11.jpg</t>
+  </si>
+  <si>
+    <t>MNIST_model_no_12.jpg</t>
+  </si>
+  <si>
+    <t>MNIST_model_no_13.jpg</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,8 +738,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>54000</v>
@@ -755,6 +767,134 @@
       </c>
       <c r="J10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>54000</v>
+      </c>
+      <c r="C11">
+        <v>6000</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>0.994327229299363</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>54000</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>0.9750199044585988</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>54000</v>
+      </c>
+      <c r="C13">
+        <v>6000</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0.9700437898089171</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>54000</v>
+      </c>
+      <c r="C14">
+        <v>6000</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
+        <v>0.9456608280254777</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
